--- a/data/pca/factorExposure/factorExposure_2011-08-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,24 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +741,69 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02250687795832138</v>
+        <v>0.01854446854497373</v>
       </c>
       <c r="C2">
-        <v>0.0151349406052097</v>
+        <v>-0.006410136183920803</v>
       </c>
       <c r="D2">
-        <v>-0.02769940606881564</v>
+        <v>0.02921823266540322</v>
       </c>
       <c r="E2">
-        <v>-0.06985255095157801</v>
+        <v>0.03224725491676295</v>
       </c>
       <c r="F2">
-        <v>-0.03978124657285573</v>
+        <v>-0.0192493814903876</v>
       </c>
       <c r="G2">
-        <v>-0.04147162046149835</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.01402252298055108</v>
+      </c>
+      <c r="H2">
+        <v>0.02512657142142342</v>
+      </c>
+      <c r="I2">
+        <v>0.02909510182979012</v>
+      </c>
+      <c r="J2">
+        <v>0.004698637908056567</v>
+      </c>
+      <c r="K2">
+        <v>0.07497824465928718</v>
+      </c>
+      <c r="L2">
+        <v>-0.007343200244592802</v>
+      </c>
+      <c r="M2">
+        <v>-0.0158432337143452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +823,69 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.06390851539285072</v>
+        <v>0.09142816474905127</v>
       </c>
       <c r="C4">
-        <v>0.06329084644242955</v>
+        <v>-0.07083682605755465</v>
       </c>
       <c r="D4">
-        <v>-0.03890767012794756</v>
+        <v>0.01523023267604755</v>
       </c>
       <c r="E4">
-        <v>-0.02029005964574799</v>
+        <v>0.05164964989949335</v>
       </c>
       <c r="F4">
-        <v>-0.03962126960241742</v>
+        <v>-0.09323708917721057</v>
       </c>
       <c r="G4">
-        <v>0.02922841627158233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03276843447114312</v>
+      </c>
+      <c r="H4">
+        <v>0.01984219144299323</v>
+      </c>
+      <c r="I4">
+        <v>-0.07256598657289778</v>
+      </c>
+      <c r="J4">
+        <v>0.01352072084288044</v>
+      </c>
+      <c r="K4">
+        <v>-0.04060931143763358</v>
+      </c>
+      <c r="L4">
+        <v>0.0646687599845968</v>
+      </c>
+      <c r="M4">
+        <v>0.02559248630435808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +905,479 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1246690506097665</v>
+        <v>0.1288275309670292</v>
       </c>
       <c r="C6">
-        <v>0.04831922170362594</v>
+        <v>-0.04206002230195535</v>
       </c>
       <c r="D6">
-        <v>-0.04784519275801512</v>
+        <v>0.04191406537827861</v>
       </c>
       <c r="E6">
-        <v>-0.07555121014982831</v>
+        <v>0.004833058634234834</v>
       </c>
       <c r="F6">
-        <v>-0.05064558577921362</v>
+        <v>-0.0732331245941243</v>
       </c>
       <c r="G6">
-        <v>0.02915377032450719</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.04138929802689804</v>
+      </c>
+      <c r="H6">
+        <v>-0.1610999982070369</v>
+      </c>
+      <c r="I6">
+        <v>-0.05819978992553175</v>
+      </c>
+      <c r="J6">
+        <v>0.4226053523285482</v>
+      </c>
+      <c r="K6">
+        <v>-0.1859831454714421</v>
+      </c>
+      <c r="L6">
+        <v>-0.03493366130022605</v>
+      </c>
+      <c r="M6">
+        <v>0.04551344844752086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.06250468026030864</v>
+        <v>0.06501753160508983</v>
       </c>
       <c r="C7">
-        <v>0.04645364077707365</v>
+        <v>-0.06828587978523173</v>
       </c>
       <c r="D7">
-        <v>-0.04717348103448649</v>
+        <v>0.04187279200614218</v>
       </c>
       <c r="E7">
-        <v>-0.0543355704553424</v>
+        <v>0.02734751476784403</v>
       </c>
       <c r="F7">
-        <v>-0.02091212843492024</v>
+        <v>-0.03550811061981747</v>
       </c>
       <c r="G7">
-        <v>0.04693033492828504</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.005901970422885823</v>
+      </c>
+      <c r="H7">
+        <v>-0.003301120342902472</v>
+      </c>
+      <c r="I7">
+        <v>-0.04431721028140981</v>
+      </c>
+      <c r="J7">
+        <v>-0.07326959199106542</v>
+      </c>
+      <c r="K7">
+        <v>0.007563308910900453</v>
+      </c>
+      <c r="L7">
+        <v>0.04972654752887041</v>
+      </c>
+      <c r="M7">
+        <v>-0.02316725018241963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.02084908833656431</v>
+        <v>0.03380051754168829</v>
       </c>
       <c r="C8">
-        <v>0.02377985130663074</v>
+        <v>-0.01176873864983809</v>
       </c>
       <c r="D8">
-        <v>-0.005911610076323361</v>
+        <v>0.01153376538860588</v>
       </c>
       <c r="E8">
-        <v>-0.04476358637978558</v>
+        <v>0.07102441250977681</v>
       </c>
       <c r="F8">
-        <v>-0.07152257587140982</v>
+        <v>-0.05858263163537509</v>
       </c>
       <c r="G8">
-        <v>-0.003500813087385733</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05158817428050314</v>
+      </c>
+      <c r="H8">
+        <v>-0.001212453034635302</v>
+      </c>
+      <c r="I8">
+        <v>-0.08872119700715789</v>
+      </c>
+      <c r="J8">
+        <v>0.005023038821834845</v>
+      </c>
+      <c r="K8">
+        <v>-0.05778045019657451</v>
+      </c>
+      <c r="L8">
+        <v>0.05326891159586763</v>
+      </c>
+      <c r="M8">
+        <v>0.04760434499840314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.0676715640568083</v>
+        <v>0.081761837997666</v>
       </c>
       <c r="C9">
-        <v>0.07446080719920273</v>
+        <v>-0.06563417092429601</v>
       </c>
       <c r="D9">
-        <v>-0.0366179223794167</v>
+        <v>0.01436183441416797</v>
       </c>
       <c r="E9">
-        <v>-0.02513025900204122</v>
+        <v>0.03802005616950738</v>
       </c>
       <c r="F9">
-        <v>-0.0308755034343792</v>
+        <v>-0.0800031334377081</v>
       </c>
       <c r="G9">
-        <v>0.0065653648896597</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04383674704591208</v>
+      </c>
+      <c r="H9">
+        <v>0.01654862448186636</v>
+      </c>
+      <c r="I9">
+        <v>-0.08886356560235183</v>
+      </c>
+      <c r="J9">
+        <v>0.005617538508009853</v>
+      </c>
+      <c r="K9">
+        <v>-0.02005222021184178</v>
+      </c>
+      <c r="L9">
+        <v>0.03123927530063017</v>
+      </c>
+      <c r="M9">
+        <v>0.03446499590723435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.05364008947816392</v>
+        <v>0.1052674902325832</v>
       </c>
       <c r="C10">
-        <v>-0.1258378578288925</v>
+        <v>0.1672305047524229</v>
       </c>
       <c r="D10">
-        <v>0.01758250717451953</v>
+        <v>0.02400812814803322</v>
       </c>
       <c r="E10">
-        <v>-0.0673506691399129</v>
+        <v>0.05077502377664699</v>
       </c>
       <c r="F10">
-        <v>-0.03027272866566903</v>
+        <v>-0.01420128106450695</v>
       </c>
       <c r="G10">
-        <v>0.02516256454426709</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.03891850354909202</v>
+      </c>
+      <c r="H10">
+        <v>-0.02298229511434896</v>
+      </c>
+      <c r="I10">
+        <v>0.01677508404596072</v>
+      </c>
+      <c r="J10">
+        <v>-0.04250311870364636</v>
+      </c>
+      <c r="K10">
+        <v>0.03937718055303105</v>
+      </c>
+      <c r="L10">
+        <v>0.01421005487982478</v>
+      </c>
+      <c r="M10">
+        <v>0.1098801145445066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06129066761109403</v>
+        <v>0.06595503092028202</v>
       </c>
       <c r="C11">
-        <v>0.07599359619965196</v>
+        <v>-0.06560739834029629</v>
       </c>
       <c r="D11">
-        <v>-0.04443576217998717</v>
+        <v>0.02841372796445563</v>
       </c>
       <c r="E11">
-        <v>-0.03532206326757981</v>
+        <v>0.01962329212209575</v>
       </c>
       <c r="F11">
-        <v>-0.0008462782653443753</v>
+        <v>-0.06180889723392626</v>
       </c>
       <c r="G11">
-        <v>-0.03958674474273203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.06950590014084103</v>
+      </c>
+      <c r="H11">
+        <v>0.01768816163825254</v>
+      </c>
+      <c r="I11">
+        <v>-0.07338580134563956</v>
+      </c>
+      <c r="J11">
+        <v>-0.07833823123490281</v>
+      </c>
+      <c r="K11">
+        <v>0.0623684258532594</v>
+      </c>
+      <c r="L11">
+        <v>-0.02824683759010082</v>
+      </c>
+      <c r="M11">
+        <v>0.1022893453791846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.05626131673047349</v>
+        <v>0.0659976553552705</v>
       </c>
       <c r="C12">
-        <v>0.04622283518354219</v>
+        <v>-0.05501536550405048</v>
       </c>
       <c r="D12">
-        <v>-0.0263258119878137</v>
+        <v>0.01001931409131922</v>
       </c>
       <c r="E12">
-        <v>-0.01923358036255133</v>
+        <v>0.02145765878212539</v>
       </c>
       <c r="F12">
-        <v>-0.01156626114528629</v>
+        <v>-0.0509782548628487</v>
       </c>
       <c r="G12">
-        <v>0.02101560367644577</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.06866008441216016</v>
+      </c>
+      <c r="H12">
+        <v>0.01488109267637519</v>
+      </c>
+      <c r="I12">
+        <v>-0.09163688677407848</v>
+      </c>
+      <c r="J12">
+        <v>-0.05761278987685742</v>
+      </c>
+      <c r="K12">
+        <v>0.06739714276544842</v>
+      </c>
+      <c r="L12">
+        <v>0.02210594362265055</v>
+      </c>
+      <c r="M12">
+        <v>0.132990544717195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.06211556185014206</v>
+        <v>0.05548727764796137</v>
       </c>
       <c r="C13">
-        <v>0.03041644009667867</v>
+        <v>-0.0393860360690144</v>
       </c>
       <c r="D13">
-        <v>0.01348052735536516</v>
+        <v>-0.01134333561200066</v>
       </c>
       <c r="E13">
-        <v>-0.02260197961079941</v>
+        <v>0.04060959431593304</v>
       </c>
       <c r="F13">
-        <v>-0.03152245907374623</v>
+        <v>-0.00520552955751901</v>
       </c>
       <c r="G13">
-        <v>-0.01245406403922817</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.03639232838483082</v>
+      </c>
+      <c r="H13">
+        <v>0.01766120412755024</v>
+      </c>
+      <c r="I13">
+        <v>-0.06503130882105802</v>
+      </c>
+      <c r="J13">
+        <v>-0.01076222039475456</v>
+      </c>
+      <c r="K13">
+        <v>-0.03804099691418917</v>
+      </c>
+      <c r="L13">
+        <v>0.0436733833803754</v>
+      </c>
+      <c r="M13">
+        <v>-0.09897814824878445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.03126122887044062</v>
+        <v>0.04242401930693007</v>
       </c>
       <c r="C14">
-        <v>0.004943127294733191</v>
+        <v>-0.01930352401585896</v>
       </c>
       <c r="D14">
-        <v>-0.04520246044904094</v>
+        <v>0.01817484166401785</v>
       </c>
       <c r="E14">
-        <v>-0.006929344333264365</v>
+        <v>0.003242251082975786</v>
       </c>
       <c r="F14">
-        <v>-0.01200467397642848</v>
+        <v>-0.06375879177227459</v>
       </c>
       <c r="G14">
-        <v>0.005274268591621619</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02165914418044574</v>
+      </c>
+      <c r="H14">
+        <v>0.04233931798707546</v>
+      </c>
+      <c r="I14">
+        <v>-0.06566152923440867</v>
+      </c>
+      <c r="J14">
+        <v>0.0002680702286258075</v>
+      </c>
+      <c r="K14">
+        <v>-0.04435279996626184</v>
+      </c>
+      <c r="L14">
+        <v>0.0210942421717152</v>
+      </c>
+      <c r="M14">
+        <v>-0.003892144306482289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.04031055752207784</v>
+        <v>0.03517277296958505</v>
       </c>
       <c r="C15">
-        <v>0.007725940001163629</v>
+        <v>-0.01312188934235675</v>
       </c>
       <c r="D15">
-        <v>0.006120690901403488</v>
+        <v>-0.01651909883833846</v>
       </c>
       <c r="E15">
-        <v>-0.0002493227644330704</v>
+        <v>0.007792497620445898</v>
       </c>
       <c r="F15">
-        <v>-0.02265380612227795</v>
+        <v>-0.01638812717557578</v>
       </c>
       <c r="G15">
-        <v>0.004755456568753992</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.01228125318973381</v>
+      </c>
+      <c r="H15">
+        <v>-0.002418956408009219</v>
+      </c>
+      <c r="I15">
+        <v>-0.04090041594959244</v>
+      </c>
+      <c r="J15">
+        <v>-0.0004380883676666952</v>
+      </c>
+      <c r="K15">
+        <v>-0.05751319289551617</v>
+      </c>
+      <c r="L15">
+        <v>0.02510858792989108</v>
+      </c>
+      <c r="M15">
+        <v>-0.01194343297520741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.04685343214453194</v>
+        <v>0.06725814665398128</v>
       </c>
       <c r="C16">
-        <v>0.06753062571098732</v>
+        <v>-0.07111924763709296</v>
       </c>
       <c r="D16">
-        <v>-0.03451002267578053</v>
+        <v>0.01496482433782203</v>
       </c>
       <c r="E16">
-        <v>-0.01426024322211097</v>
+        <v>0.02785168762406434</v>
       </c>
       <c r="F16">
-        <v>-0.02528972659030498</v>
+        <v>-0.06987341809847396</v>
       </c>
       <c r="G16">
-        <v>0.007454456917075828</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.04565965010067487</v>
+      </c>
+      <c r="H16">
+        <v>0.01617476206943797</v>
+      </c>
+      <c r="I16">
+        <v>-0.08076661223026549</v>
+      </c>
+      <c r="J16">
+        <v>-0.07230502280064453</v>
+      </c>
+      <c r="K16">
+        <v>0.04572349181276803</v>
+      </c>
+      <c r="L16">
+        <v>-0.002596695585045499</v>
+      </c>
+      <c r="M16">
+        <v>0.1212555045923018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1397,28 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1438,28 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1479,315 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.04649346587632767</v>
+        <v>0.0479492579048983</v>
       </c>
       <c r="C20">
-        <v>0.04990359756869078</v>
+        <v>-0.03880010118917726</v>
       </c>
       <c r="D20">
-        <v>0.003341606649234446</v>
+        <v>0.01700425274846873</v>
       </c>
       <c r="E20">
-        <v>-0.0281016537733434</v>
+        <v>0.02080986845935814</v>
       </c>
       <c r="F20">
-        <v>-0.01475906403494898</v>
+        <v>-0.01483848449437083</v>
       </c>
       <c r="G20">
-        <v>0.007809506669052377</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05301031339590747</v>
+      </c>
+      <c r="H20">
+        <v>0.03086714674875395</v>
+      </c>
+      <c r="I20">
+        <v>-0.1156676004190893</v>
+      </c>
+      <c r="J20">
+        <v>-0.0190752530491186</v>
+      </c>
+      <c r="K20">
+        <v>0.02516063262720572</v>
+      </c>
+      <c r="L20">
+        <v>0.04989054367777092</v>
+      </c>
+      <c r="M20">
+        <v>0.0118875706897693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.02243285276611715</v>
+        <v>0.02309602857643828</v>
       </c>
       <c r="C21">
-        <v>0.03316133651940539</v>
+        <v>-0.0165922638694082</v>
       </c>
       <c r="D21">
-        <v>0.05226120831087469</v>
+        <v>-0.02619081274302568</v>
       </c>
       <c r="E21">
-        <v>-0.009219144074597596</v>
+        <v>0.03799455068584092</v>
       </c>
       <c r="F21">
-        <v>-0.0578057364770144</v>
+        <v>-0.005637285671041373</v>
       </c>
       <c r="G21">
-        <v>0.03643638964207851</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.0229730860642746</v>
+      </c>
+      <c r="H21">
+        <v>-0.07991317038582216</v>
+      </c>
+      <c r="I21">
+        <v>-0.07325783169705</v>
+      </c>
+      <c r="J21">
+        <v>0.004726120097670349</v>
+      </c>
+      <c r="K21">
+        <v>-0.06356931603471107</v>
+      </c>
+      <c r="L21">
+        <v>0.02263651890677143</v>
+      </c>
+      <c r="M21">
+        <v>-0.02501382957383668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.06536295640060119</v>
+        <v>0.06512390757435554</v>
       </c>
       <c r="C22">
-        <v>0.1312182517174966</v>
+        <v>-0.08554883367247305</v>
       </c>
       <c r="D22">
-        <v>0.1551285688820952</v>
+        <v>-0.4005342581214593</v>
       </c>
       <c r="E22">
-        <v>0.05619217033458283</v>
+        <v>0.3921528698341267</v>
       </c>
       <c r="F22">
-        <v>-0.3716566896450202</v>
+        <v>-0.07639371170687582</v>
       </c>
       <c r="G22">
-        <v>0.2145746250896022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.3123058143052966</v>
+      </c>
+      <c r="H22">
+        <v>-0.02035986559598991</v>
+      </c>
+      <c r="I22">
+        <v>0.1887725547840578</v>
+      </c>
+      <c r="J22">
+        <v>0.04532219968837015</v>
+      </c>
+      <c r="K22">
+        <v>0.02941209976350897</v>
+      </c>
+      <c r="L22">
+        <v>0.07374885925310411</v>
+      </c>
+      <c r="M22">
+        <v>0.003180334511930969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.06614197957141836</v>
+        <v>0.06584667677049742</v>
       </c>
       <c r="C23">
-        <v>0.1301378511566474</v>
+        <v>-0.08578495284350335</v>
       </c>
       <c r="D23">
-        <v>0.1553133597678404</v>
+        <v>-0.4016375859361443</v>
       </c>
       <c r="E23">
-        <v>0.05534623044628563</v>
+        <v>0.3947296271424147</v>
       </c>
       <c r="F23">
-        <v>-0.3729312342735158</v>
+        <v>-0.07938384005390463</v>
       </c>
       <c r="G23">
-        <v>0.2122923679716585</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.3088375684194733</v>
+      </c>
+      <c r="H23">
+        <v>-0.01980135282606554</v>
+      </c>
+      <c r="I23">
+        <v>0.189313677216976</v>
+      </c>
+      <c r="J23">
+        <v>0.05020663579001774</v>
+      </c>
+      <c r="K23">
+        <v>0.02803609954608809</v>
+      </c>
+      <c r="L23">
+        <v>0.0711661472543309</v>
+      </c>
+      <c r="M23">
+        <v>0.00457687154742534</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.06810844336972857</v>
+        <v>0.07376477963828026</v>
       </c>
       <c r="C24">
-        <v>0.06934982197618962</v>
+        <v>-0.06937556169076728</v>
       </c>
       <c r="D24">
-        <v>-0.03130950985447253</v>
+        <v>0.01239379969991244</v>
       </c>
       <c r="E24">
-        <v>-0.03715085781352722</v>
+        <v>0.03416010419512532</v>
       </c>
       <c r="F24">
-        <v>-0.03677308650786352</v>
+        <v>-0.06981079148623458</v>
       </c>
       <c r="G24">
-        <v>-0.02409791982837268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.06408636091885549</v>
+      </c>
+      <c r="H24">
+        <v>0.01091685558767869</v>
+      </c>
+      <c r="I24">
+        <v>-0.07711241673850873</v>
+      </c>
+      <c r="J24">
+        <v>-0.04485780270313814</v>
+      </c>
+      <c r="K24">
+        <v>0.05615290532094841</v>
+      </c>
+      <c r="L24">
+        <v>-0.003089865265283994</v>
+      </c>
+      <c r="M24">
+        <v>0.1111875341646589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06267093211964575</v>
+        <v>0.0706515194542615</v>
       </c>
       <c r="C25">
-        <v>0.04069353829284263</v>
+        <v>-0.04486342923060198</v>
       </c>
       <c r="D25">
-        <v>-0.03053722223592271</v>
+        <v>0.02063009934150866</v>
       </c>
       <c r="E25">
-        <v>-0.04346636279705931</v>
+        <v>0.03319728708795654</v>
       </c>
       <c r="F25">
-        <v>-0.05056193452056198</v>
+        <v>-0.07382591194887425</v>
       </c>
       <c r="G25">
-        <v>-0.01733331087633864</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.05751032842278889</v>
+      </c>
+      <c r="H25">
+        <v>0.03251902466892334</v>
+      </c>
+      <c r="I25">
+        <v>-0.08940090808575002</v>
+      </c>
+      <c r="J25">
+        <v>-0.0424814046688711</v>
+      </c>
+      <c r="K25">
+        <v>0.08116799199238468</v>
+      </c>
+      <c r="L25">
+        <v>-0.02246524279021937</v>
+      </c>
+      <c r="M25">
+        <v>0.1086950921679265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.04618637847280589</v>
+        <v>0.04174799207302891</v>
       </c>
       <c r="C26">
-        <v>0.03071703157744794</v>
+        <v>-0.0242236933838208</v>
       </c>
       <c r="D26">
-        <v>0.004703020924552759</v>
+        <v>-0.01853424411624404</v>
       </c>
       <c r="E26">
-        <v>-0.03815821402055951</v>
+        <v>0.02357906473510835</v>
       </c>
       <c r="F26">
-        <v>0.008732521074701393</v>
+        <v>-0.003349444274355145</v>
       </c>
       <c r="G26">
-        <v>0.02999680948719055</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.024848929358097</v>
+      </c>
+      <c r="H26">
+        <v>0.008755207772750693</v>
+      </c>
+      <c r="I26">
+        <v>-0.0645258373610345</v>
+      </c>
+      <c r="J26">
+        <v>-0.02914688535813693</v>
+      </c>
+      <c r="K26">
+        <v>-0.1008730507414112</v>
+      </c>
+      <c r="L26">
+        <v>0.04592287117454982</v>
+      </c>
+      <c r="M26">
+        <v>-0.05175964705052464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1807,397 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1063941044171499</v>
+        <v>0.1336355156071473</v>
       </c>
       <c r="C28">
-        <v>-0.2889363541333558</v>
+        <v>0.2902984387491676</v>
       </c>
       <c r="D28">
-        <v>0.03258567793152146</v>
+        <v>0.004585930765784178</v>
       </c>
       <c r="E28">
-        <v>-0.07648667530967658</v>
+        <v>0.03998358256961254</v>
       </c>
       <c r="F28">
-        <v>-0.01311334272841525</v>
+        <v>0.005609752884964288</v>
       </c>
       <c r="G28">
-        <v>0.06996869484224917</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.009222459540033487</v>
+      </c>
+      <c r="H28">
+        <v>-0.03066481777345777</v>
+      </c>
+      <c r="I28">
+        <v>0.0132932209987342</v>
+      </c>
+      <c r="J28">
+        <v>-0.01825434789084902</v>
+      </c>
+      <c r="K28">
+        <v>-0.05107824839677891</v>
+      </c>
+      <c r="L28">
+        <v>0.01285519812941356</v>
+      </c>
+      <c r="M28">
+        <v>-0.004270756628231167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.04598284352903723</v>
+        <v>0.04543801580435191</v>
       </c>
       <c r="C29">
-        <v>0.004244705230260464</v>
+        <v>-0.02009308236843722</v>
       </c>
       <c r="D29">
-        <v>-0.01845071113261336</v>
+        <v>0.008599587988825196</v>
       </c>
       <c r="E29">
-        <v>-0.01061468800054399</v>
+        <v>0.02119285700268404</v>
       </c>
       <c r="F29">
-        <v>-0.03809001403600511</v>
+        <v>-0.04524023568385903</v>
       </c>
       <c r="G29">
-        <v>0.01325397087430704</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02262265166298646</v>
+      </c>
+      <c r="H29">
+        <v>0.04511550444594795</v>
+      </c>
+      <c r="I29">
+        <v>-0.05305808435691517</v>
+      </c>
+      <c r="J29">
+        <v>0.002862062423636737</v>
+      </c>
+      <c r="K29">
+        <v>-0.02360828998647117</v>
+      </c>
+      <c r="L29">
+        <v>0.01964582602961683</v>
+      </c>
+      <c r="M29">
+        <v>-0.001765230949691701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1209171606699575</v>
+        <v>0.1046194172437787</v>
       </c>
       <c r="C30">
-        <v>0.08325981298568506</v>
+        <v>-0.06920670243378106</v>
       </c>
       <c r="D30">
-        <v>-0.08061506530810403</v>
+        <v>0.01527596112849619</v>
       </c>
       <c r="E30">
-        <v>-0.06812242472330134</v>
+        <v>0.08353381980828839</v>
       </c>
       <c r="F30">
-        <v>-0.06211080166613411</v>
+        <v>-0.1346015267093823</v>
       </c>
       <c r="G30">
-        <v>0.04375697360297121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.09405664372021355</v>
+      </c>
+      <c r="H30">
+        <v>-0.04422783732601351</v>
+      </c>
+      <c r="I30">
+        <v>-0.1693518063384449</v>
+      </c>
+      <c r="J30">
+        <v>0.001497282666803527</v>
+      </c>
+      <c r="K30">
+        <v>0.0615693531210318</v>
+      </c>
+      <c r="L30">
+        <v>0.3673118990780765</v>
+      </c>
+      <c r="M30">
+        <v>-0.3488499861665333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04500399113845827</v>
+        <v>0.03538007438751314</v>
       </c>
       <c r="C31">
-        <v>0.01684140293564598</v>
+        <v>-0.0414450355720274</v>
       </c>
       <c r="D31">
-        <v>-0.02014035845250826</v>
+        <v>-0.008830237091884911</v>
       </c>
       <c r="E31">
-        <v>0.004394416375946683</v>
+        <v>-0.002611323392495416</v>
       </c>
       <c r="F31">
-        <v>0.005265582051128818</v>
+        <v>-0.01036819556626352</v>
       </c>
       <c r="G31">
-        <v>0.01414963351328223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.002761088677139175</v>
+      </c>
+      <c r="H31">
+        <v>0.05310947652316984</v>
+      </c>
+      <c r="I31">
+        <v>-0.04699754642045138</v>
+      </c>
+      <c r="J31">
+        <v>0.006879190255160835</v>
+      </c>
+      <c r="K31">
+        <v>-0.005456786691751739</v>
+      </c>
+      <c r="L31">
+        <v>0.00946297632937128</v>
+      </c>
+      <c r="M31">
+        <v>0.003600632754243199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.03471011497443888</v>
+        <v>0.04842022399181661</v>
       </c>
       <c r="C32">
-        <v>0.02536617761308758</v>
+        <v>-0.004000907363539031</v>
       </c>
       <c r="D32">
-        <v>0.03631385582227596</v>
+        <v>-0.03888088533521437</v>
       </c>
       <c r="E32">
-        <v>0.01676231210971378</v>
+        <v>0.0467386873185335</v>
       </c>
       <c r="F32">
-        <v>-0.0663061060330478</v>
+        <v>-0.0235367636351437</v>
       </c>
       <c r="G32">
-        <v>0.0340137290032469</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.006560327543193307</v>
+      </c>
+      <c r="H32">
+        <v>0.003898441139432801</v>
+      </c>
+      <c r="I32">
+        <v>-0.01634025912632248</v>
+      </c>
+      <c r="J32">
+        <v>-0.04935432732510042</v>
+      </c>
+      <c r="K32">
+        <v>-0.08203946830325595</v>
+      </c>
+      <c r="L32">
+        <v>0.07093887630688421</v>
+      </c>
+      <c r="M32">
+        <v>-0.05291317757920667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.09454195559971224</v>
+        <v>0.09922198898729154</v>
       </c>
       <c r="C33">
-        <v>0.05192045554088488</v>
+        <v>-0.06485877930507121</v>
       </c>
       <c r="D33">
-        <v>-0.03724160757797172</v>
+        <v>-0.01689530335013767</v>
       </c>
       <c r="E33">
-        <v>-0.01411828360308286</v>
+        <v>0.001366684431542394</v>
       </c>
       <c r="F33">
-        <v>-0.0054389900148002</v>
+        <v>-0.04837301987254886</v>
       </c>
       <c r="G33">
-        <v>0.002128663451366004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03274376522093139</v>
+      </c>
+      <c r="H33">
+        <v>0.04971062719991771</v>
+      </c>
+      <c r="I33">
+        <v>-0.06512727877851116</v>
+      </c>
+      <c r="J33">
+        <v>0.005007348060106481</v>
+      </c>
+      <c r="K33">
+        <v>-0.02970477993481366</v>
+      </c>
+      <c r="L33">
+        <v>0.02767343881700529</v>
+      </c>
+      <c r="M33">
+        <v>0.02583822718694299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05636120151807832</v>
+        <v>0.06253837940858981</v>
       </c>
       <c r="C34">
-        <v>0.07173885625656136</v>
+        <v>-0.05872328638413508</v>
       </c>
       <c r="D34">
-        <v>-0.01495356091047795</v>
+        <v>0.01027469950093927</v>
       </c>
       <c r="E34">
-        <v>-0.02145901595411152</v>
+        <v>0.0203608460037809</v>
       </c>
       <c r="F34">
-        <v>-0.04932677953156245</v>
+        <v>-0.05401337240715189</v>
       </c>
       <c r="G34">
-        <v>-0.007119515405388788</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.05568039076166113</v>
+      </c>
+      <c r="H34">
+        <v>0.03042930705866889</v>
+      </c>
+      <c r="I34">
+        <v>-0.08148690317956843</v>
+      </c>
+      <c r="J34">
+        <v>-0.03825919150160318</v>
+      </c>
+      <c r="K34">
+        <v>0.05731087464164059</v>
+      </c>
+      <c r="L34">
+        <v>-0.01807725379863803</v>
+      </c>
+      <c r="M34">
+        <v>0.1197895369917096</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.03549305063205116</v>
+        <v>0.03066389231017374</v>
       </c>
       <c r="C35">
-        <v>0.01499508701400894</v>
+        <v>-0.0214471670691706</v>
       </c>
       <c r="D35">
-        <v>-0.009825621447121929</v>
+        <v>-0.0005278766204943759</v>
       </c>
       <c r="E35">
-        <v>-0.0001918291072115927</v>
+        <v>-0.003698858038600698</v>
       </c>
       <c r="F35">
-        <v>-0.01078176578852254</v>
+        <v>-0.01628289107390308</v>
       </c>
       <c r="G35">
-        <v>0.02348683717270055</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.002259509189065328</v>
+      </c>
+      <c r="H35">
+        <v>0.02358222210305492</v>
+      </c>
+      <c r="I35">
+        <v>-0.07263409926415573</v>
+      </c>
+      <c r="J35">
+        <v>-0.02727315766268746</v>
+      </c>
+      <c r="K35">
+        <v>0.02382628979937636</v>
+      </c>
+      <c r="L35">
+        <v>0.02909603757022156</v>
+      </c>
+      <c r="M35">
+        <v>-0.003712800337130304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.03067439408616401</v>
+        <v>0.03006960727923258</v>
       </c>
       <c r="C36">
-        <v>0.01997214134612231</v>
+        <v>-0.01644899260987388</v>
       </c>
       <c r="D36">
-        <v>0.003219475841662947</v>
+        <v>-0.005407394998916377</v>
       </c>
       <c r="E36">
-        <v>-0.030508076014614</v>
+        <v>0.03103322516030109</v>
       </c>
       <c r="F36">
-        <v>-0.02583329744991565</v>
+        <v>-0.02104659409184305</v>
       </c>
       <c r="G36">
-        <v>0.002052130129769675</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.03263425804517099</v>
+      </c>
+      <c r="H36">
+        <v>0.02084343030475843</v>
+      </c>
+      <c r="I36">
+        <v>-0.06921876318823714</v>
+      </c>
+      <c r="J36">
+        <v>0.003167862491663371</v>
+      </c>
+      <c r="K36">
+        <v>-0.0136874412242912</v>
+      </c>
+      <c r="L36">
+        <v>0.01388025664501743</v>
+      </c>
+      <c r="M36">
+        <v>-0.008179216198654221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2217,192 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.04463851696606732</v>
+        <v>0.03808532047016309</v>
       </c>
       <c r="C38">
-        <v>0.02079925880611861</v>
+        <v>-0.04493804160324631</v>
       </c>
       <c r="D38">
-        <v>0.021645906498528</v>
+        <v>-0.01546098353016893</v>
       </c>
       <c r="E38">
-        <v>0.022577576381602</v>
+        <v>0.02087663805998702</v>
       </c>
       <c r="F38">
-        <v>-0.07575601399476482</v>
+        <v>0.01245965837799472</v>
       </c>
       <c r="G38">
-        <v>0.009682946418158093</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01727110886733593</v>
+      </c>
+      <c r="H38">
+        <v>0.007116612348867965</v>
+      </c>
+      <c r="I38">
+        <v>0.1066879780330097</v>
+      </c>
+      <c r="J38">
+        <v>-0.02354264102594031</v>
+      </c>
+      <c r="K38">
+        <v>-0.06974907190545263</v>
+      </c>
+      <c r="L38">
+        <v>0.008733730663676945</v>
+      </c>
+      <c r="M38">
+        <v>-0.2408727018532992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.08624398984201063</v>
+        <v>0.09152994506435397</v>
       </c>
       <c r="C39">
-        <v>0.07633593544335308</v>
+        <v>-0.07123526960698835</v>
       </c>
       <c r="D39">
-        <v>-0.05173536215904023</v>
+        <v>0.007539846456370522</v>
       </c>
       <c r="E39">
-        <v>-0.007674388648194409</v>
+        <v>0.02860224861676442</v>
       </c>
       <c r="F39">
-        <v>-0.04390086164961195</v>
+        <v>-0.07707910614019325</v>
       </c>
       <c r="G39">
-        <v>-0.008871865817327108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.05401386743524182</v>
+      </c>
+      <c r="H39">
+        <v>0.01446585641415416</v>
+      </c>
+      <c r="I39">
+        <v>-0.09288074613628057</v>
+      </c>
+      <c r="J39">
+        <v>-0.1249702286922688</v>
+      </c>
+      <c r="K39">
+        <v>0.11419618610098</v>
+      </c>
+      <c r="L39">
+        <v>0.09458550140911375</v>
+      </c>
+      <c r="M39">
+        <v>0.00115123267671872</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.07466995613095334</v>
+        <v>0.04247344338621732</v>
       </c>
       <c r="C40">
-        <v>0.05161445134281369</v>
+        <v>-0.06514290267116327</v>
       </c>
       <c r="D40">
-        <v>0.01866174321891415</v>
+        <v>-0.06565455210081893</v>
       </c>
       <c r="E40">
-        <v>-0.01086706404204166</v>
+        <v>0.05915819217846473</v>
       </c>
       <c r="F40">
-        <v>-0.2138053719465898</v>
+        <v>-0.054948728535651</v>
       </c>
       <c r="G40">
-        <v>0.04821072049045708</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1091009578632579</v>
+      </c>
+      <c r="H40">
+        <v>-0.05869645602113513</v>
+      </c>
+      <c r="I40">
+        <v>-0.05582728657400435</v>
+      </c>
+      <c r="J40">
+        <v>-0.09578176256028108</v>
+      </c>
+      <c r="K40">
+        <v>0.03215189202774221</v>
+      </c>
+      <c r="L40">
+        <v>0.07148427160926614</v>
+      </c>
+      <c r="M40">
+        <v>-0.2256920825127622</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04383742861379014</v>
+        <v>0.03675349996873521</v>
       </c>
       <c r="C41">
-        <v>0.04309887513432607</v>
+        <v>-0.03394148956513823</v>
       </c>
       <c r="D41">
-        <v>-0.02226514712938651</v>
+        <v>0.01790458128689139</v>
       </c>
       <c r="E41">
-        <v>0.006922772194740837</v>
+        <v>-0.0211919218499908</v>
       </c>
       <c r="F41">
-        <v>-0.006764204059454918</v>
+        <v>-0.004966990985545033</v>
       </c>
       <c r="G41">
-        <v>-0.0005398535093895016</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03061027424951676</v>
+      </c>
+      <c r="H41">
+        <v>0.02832644394919883</v>
+      </c>
+      <c r="I41">
+        <v>-0.01561273003388911</v>
+      </c>
+      <c r="J41">
+        <v>-0.03580994352569012</v>
+      </c>
+      <c r="K41">
+        <v>-0.00489642727630364</v>
+      </c>
+      <c r="L41">
+        <v>0.01927137802200339</v>
+      </c>
+      <c r="M41">
+        <v>0.0227366391497418</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2422,110 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05177334105611393</v>
+        <v>0.05202001427481048</v>
       </c>
       <c r="C43">
-        <v>0.03428666581021605</v>
+        <v>-0.04794285387079671</v>
       </c>
       <c r="D43">
-        <v>-0.01268955135751709</v>
+        <v>0.006953168182065123</v>
       </c>
       <c r="E43">
-        <v>-0.01715758098965621</v>
+        <v>0.01549657876764295</v>
       </c>
       <c r="F43">
-        <v>-0.003072354942079844</v>
+        <v>-0.009832873447085267</v>
       </c>
       <c r="G43">
-        <v>0.01164869030330721</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01438127602436339</v>
+      </c>
+      <c r="H43">
+        <v>0.05297007772390578</v>
+      </c>
+      <c r="I43">
+        <v>-0.01798386869609493</v>
+      </c>
+      <c r="J43">
+        <v>-0.01929446538427044</v>
+      </c>
+      <c r="K43">
+        <v>0.003297790058270845</v>
+      </c>
+      <c r="L43">
+        <v>-0.003322146657296798</v>
+      </c>
+      <c r="M43">
+        <v>0.004932163907874629</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.06377422170741424</v>
+        <v>0.08044533832712586</v>
       </c>
       <c r="C44">
-        <v>0.03753331864255306</v>
+        <v>-0.05596216517641607</v>
       </c>
       <c r="D44">
-        <v>0.04191217439233542</v>
+        <v>0.004509168287228414</v>
       </c>
       <c r="E44">
-        <v>-0.08119491143168561</v>
+        <v>0.1285710522213092</v>
       </c>
       <c r="F44">
-        <v>-0.1324977481248792</v>
+        <v>-0.06007627636456435</v>
       </c>
       <c r="G44">
-        <v>0.006133109744818802</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.08120434085761211</v>
+      </c>
+      <c r="H44">
+        <v>0.0482063234793761</v>
+      </c>
+      <c r="I44">
+        <v>-0.1169693609932818</v>
+      </c>
+      <c r="J44">
+        <v>-0.04495525452318234</v>
+      </c>
+      <c r="K44">
+        <v>0.04857614535393551</v>
+      </c>
+      <c r="L44">
+        <v>-0.01125544275233282</v>
+      </c>
+      <c r="M44">
+        <v>-0.05783336203977704</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2545,274 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.02111681505438908</v>
+        <v>0.04302957474354292</v>
       </c>
       <c r="C46">
-        <v>0.02880597193613905</v>
+        <v>-0.03882631311623225</v>
       </c>
       <c r="D46">
-        <v>0.0006777713736229974</v>
+        <v>0.001531591997692775</v>
       </c>
       <c r="E46">
-        <v>-0.01808585088337294</v>
+        <v>0.03618944791446434</v>
       </c>
       <c r="F46">
-        <v>-0.05496243291837576</v>
+        <v>-0.0412054108221796</v>
       </c>
       <c r="G46">
-        <v>0.001933486798484887</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.005431942942099525</v>
+      </c>
+      <c r="H46">
+        <v>0.02195043279712192</v>
+      </c>
+      <c r="I46">
+        <v>-0.05445750494908112</v>
+      </c>
+      <c r="J46">
+        <v>-0.001554423391070444</v>
+      </c>
+      <c r="K46">
+        <v>-0.0689859747788296</v>
+      </c>
+      <c r="L46">
+        <v>0.01674887916842622</v>
+      </c>
+      <c r="M46">
+        <v>-0.01040381783532483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02944063371967678</v>
+        <v>0.04290771544392629</v>
       </c>
       <c r="C47">
-        <v>-0.007742033699759494</v>
+        <v>-0.02171722475112411</v>
       </c>
       <c r="D47">
-        <v>0.009719077265897035</v>
+        <v>-0.01885965833319722</v>
       </c>
       <c r="E47">
-        <v>-0.006681663350166899</v>
+        <v>0.01699973610475138</v>
       </c>
       <c r="F47">
-        <v>-0.06095386201085638</v>
+        <v>-0.02372708951060586</v>
       </c>
       <c r="G47">
-        <v>0.009391594361560954</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.003776536652153057</v>
+      </c>
+      <c r="H47">
+        <v>0.03601358392643433</v>
+      </c>
+      <c r="I47">
+        <v>-0.03336539570869863</v>
+      </c>
+      <c r="J47">
+        <v>0.03613184439704308</v>
+      </c>
+      <c r="K47">
+        <v>0.006566716734032176</v>
+      </c>
+      <c r="L47">
+        <v>-0.003030033377597752</v>
+      </c>
+      <c r="M47">
+        <v>0.01198312847405225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03996967244781054</v>
+        <v>0.04281560257099434</v>
       </c>
       <c r="C48">
-        <v>0.02974932893903072</v>
+        <v>-0.01855701547484784</v>
       </c>
       <c r="D48">
-        <v>0.003770094682631369</v>
+        <v>-0.02194612421080177</v>
       </c>
       <c r="E48">
-        <v>-0.01905279668477594</v>
+        <v>0.0287820154701985</v>
       </c>
       <c r="F48">
-        <v>-0.0497051214757795</v>
+        <v>-0.02140485280465707</v>
       </c>
       <c r="G48">
-        <v>0.03011076070776608</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01467262644889274</v>
+      </c>
+      <c r="H48">
+        <v>-0.007117557495696848</v>
+      </c>
+      <c r="I48">
+        <v>-0.07659771523160996</v>
+      </c>
+      <c r="J48">
+        <v>-0.002229767244205035</v>
+      </c>
+      <c r="K48">
+        <v>0.005509534414425262</v>
+      </c>
+      <c r="L48">
+        <v>0.04138087108021368</v>
+      </c>
+      <c r="M48">
+        <v>-0.005565710627665753</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1698641287756008</v>
+        <v>0.2189481393613705</v>
       </c>
       <c r="C49">
-        <v>0.09705168812434517</v>
+        <v>-0.07450410478337392</v>
       </c>
       <c r="D49">
-        <v>-0.1475416345699914</v>
+        <v>0.144496342604676</v>
       </c>
       <c r="E49">
-        <v>-0.05101409276275932</v>
+        <v>-0.08620899099340699</v>
       </c>
       <c r="F49">
-        <v>0.09821143006944731</v>
+        <v>-0.008857441093154551</v>
       </c>
       <c r="G49">
-        <v>0.09614240404303882</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.1991457326530144</v>
+      </c>
+      <c r="H49">
+        <v>-0.1988662802276717</v>
+      </c>
+      <c r="I49">
+        <v>0.07651367236292221</v>
+      </c>
+      <c r="J49">
+        <v>-0.1362385155519815</v>
+      </c>
+      <c r="K49">
+        <v>0.07938208993685951</v>
+      </c>
+      <c r="L49">
+        <v>-0.1138769546769723</v>
+      </c>
+      <c r="M49">
+        <v>0.1903757568695966</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05180276752055264</v>
+        <v>0.04397538695496353</v>
       </c>
       <c r="C50">
-        <v>0.02459291068432257</v>
+        <v>-0.0402517523443677</v>
       </c>
       <c r="D50">
-        <v>-0.02289486658454589</v>
+        <v>-0.009903024291771185</v>
       </c>
       <c r="E50">
-        <v>0.003158789176739837</v>
+        <v>-0.005784573433708314</v>
       </c>
       <c r="F50">
-        <v>-0.01806633476971404</v>
+        <v>-0.03517888483708449</v>
       </c>
       <c r="G50">
-        <v>0.002305852337708658</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.015635006879396</v>
+      </c>
+      <c r="H50">
+        <v>0.05481713824206666</v>
+      </c>
+      <c r="I50">
+        <v>-0.03257280982503893</v>
+      </c>
+      <c r="J50">
+        <v>0.03384701339332461</v>
+      </c>
+      <c r="K50">
+        <v>-0.01671322386106028</v>
+      </c>
+      <c r="L50">
+        <v>0.02677269566787034</v>
+      </c>
+      <c r="M50">
+        <v>-0.02741876303691528</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02629953720322781</v>
+        <v>0.03423550144395586</v>
       </c>
       <c r="C51">
-        <v>-0.004572431094266287</v>
+        <v>-0.001889727446792363</v>
       </c>
       <c r="D51">
-        <v>0.01564852595490668</v>
+        <v>0.009117598319184668</v>
       </c>
       <c r="E51">
-        <v>0.001717357822085863</v>
+        <v>0.01479738120341315</v>
       </c>
       <c r="F51">
-        <v>-0.01231600589840114</v>
+        <v>0.03788973120544908</v>
       </c>
       <c r="G51">
-        <v>0.003052458675340825</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.002860613876231636</v>
+      </c>
+      <c r="H51">
+        <v>-0.01143420638964159</v>
+      </c>
+      <c r="I51">
+        <v>0.001128687167661639</v>
+      </c>
+      <c r="J51">
+        <v>-0.01180676225516347</v>
+      </c>
+      <c r="K51">
+        <v>0.0657427067205739</v>
+      </c>
+      <c r="L51">
+        <v>-0.07592713693999235</v>
+      </c>
+      <c r="M51">
+        <v>0.008821800280501261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2832,192 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1564919430828812</v>
+        <v>0.1528464602234006</v>
       </c>
       <c r="C53">
-        <v>0.003822631245880906</v>
+        <v>-0.04749009569026547</v>
       </c>
       <c r="D53">
-        <v>-0.08578460698881339</v>
+        <v>0.04536817458047383</v>
       </c>
       <c r="E53">
-        <v>-0.01402887979288188</v>
+        <v>-0.051518522288182</v>
       </c>
       <c r="F53">
-        <v>0.04406529651702832</v>
+        <v>-0.01289164253999447</v>
       </c>
       <c r="G53">
-        <v>-0.1941640622546036</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.03655590287801062</v>
+      </c>
+      <c r="H53">
+        <v>0.2372000716354879</v>
+      </c>
+      <c r="I53">
+        <v>0.09980214583082929</v>
+      </c>
+      <c r="J53">
+        <v>0.05401007737719216</v>
+      </c>
+      <c r="K53">
+        <v>-0.01877384434269616</v>
+      </c>
+      <c r="L53">
+        <v>-0.03703621064092301</v>
+      </c>
+      <c r="M53">
+        <v>-0.09496180053505118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.06862833926650584</v>
+        <v>0.06249238111638493</v>
       </c>
       <c r="C54">
-        <v>0.06025093733026886</v>
+        <v>-0.03556317620838547</v>
       </c>
       <c r="D54">
-        <v>0.0139025975672507</v>
+        <v>-0.01540460129595456</v>
       </c>
       <c r="E54">
-        <v>-0.04127300954917396</v>
+        <v>0.04479605665314632</v>
       </c>
       <c r="F54">
-        <v>-0.0378764186648277</v>
+        <v>-0.04695109778143135</v>
       </c>
       <c r="G54">
-        <v>0.001802445215776297</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.0822380667701622</v>
+      </c>
+      <c r="H54">
+        <v>0.02595038079268751</v>
+      </c>
+      <c r="I54">
+        <v>-0.1003882916547711</v>
+      </c>
+      <c r="J54">
+        <v>0.01177999833125362</v>
+      </c>
+      <c r="K54">
+        <v>-0.0563884546772911</v>
+      </c>
+      <c r="L54">
+        <v>0.05333950202707944</v>
+      </c>
+      <c r="M54">
+        <v>0.003115566951083072</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09200056858843017</v>
+        <v>0.09136858344781752</v>
       </c>
       <c r="C55">
-        <v>0.002379825547358698</v>
+        <v>-0.03962096918076005</v>
       </c>
       <c r="D55">
-        <v>-0.05133872715062652</v>
+        <v>0.03694579349719469</v>
       </c>
       <c r="E55">
-        <v>-0.0242518792832372</v>
+        <v>-0.01225784492947542</v>
       </c>
       <c r="F55">
-        <v>-0.02373419793690413</v>
+        <v>-0.0304451120880045</v>
       </c>
       <c r="G55">
-        <v>-0.1498063795688439</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01641071114547005</v>
+      </c>
+      <c r="H55">
+        <v>0.1699085583203075</v>
+      </c>
+      <c r="I55">
+        <v>0.02023136542839856</v>
+      </c>
+      <c r="J55">
+        <v>0.02786260839492221</v>
+      </c>
+      <c r="K55">
+        <v>-0.01241924964546107</v>
+      </c>
+      <c r="L55">
+        <v>-0.05725371646702378</v>
+      </c>
+      <c r="M55">
+        <v>-0.04687577366795544</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1525096157083694</v>
+        <v>0.144211298911631</v>
       </c>
       <c r="C56">
-        <v>-0.005428049210203767</v>
+        <v>-0.06407688823870832</v>
       </c>
       <c r="D56">
-        <v>-0.1020979892340894</v>
+        <v>0.05247775622404878</v>
       </c>
       <c r="E56">
-        <v>-0.05108946136222157</v>
+        <v>-0.02838175768852083</v>
       </c>
       <c r="F56">
-        <v>0.04781410330060012</v>
+        <v>-0.02115409468766332</v>
       </c>
       <c r="G56">
-        <v>-0.1858657766971197</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.01686095278833066</v>
+      </c>
+      <c r="H56">
+        <v>0.2439850219348959</v>
+      </c>
+      <c r="I56">
+        <v>0.1270271789520393</v>
+      </c>
+      <c r="J56">
+        <v>0.04401788967529822</v>
+      </c>
+      <c r="K56">
+        <v>-0.01760588663186377</v>
+      </c>
+      <c r="L56">
+        <v>-0.001305558631032042</v>
+      </c>
+      <c r="M56">
+        <v>-0.08693923933839991</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,884 +3037,1586 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.1179593927913089</v>
+        <v>0.06781510895052353</v>
       </c>
       <c r="C58">
-        <v>0.1067803425906776</v>
+        <v>-0.05478154217772575</v>
       </c>
       <c r="D58">
-        <v>0.2903236275069683</v>
+        <v>-0.1226872939853579</v>
       </c>
       <c r="E58">
-        <v>-0.1085532483233567</v>
+        <v>0.1375860696307921</v>
       </c>
       <c r="F58">
-        <v>-0.1789633873956415</v>
+        <v>0.2555584022338301</v>
       </c>
       <c r="G58">
-        <v>0.2872105396088293</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.03782086714048769</v>
+      </c>
+      <c r="H58">
+        <v>-0.0915090230158814</v>
+      </c>
+      <c r="I58">
+        <v>-0.4171124636592897</v>
+      </c>
+      <c r="J58">
+        <v>0.1774490799522783</v>
+      </c>
+      <c r="K58">
+        <v>0.392868310604937</v>
+      </c>
+      <c r="L58">
+        <v>0.07560343576495861</v>
+      </c>
+      <c r="M58">
+        <v>-0.03312618452393699</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.228236251311706</v>
+        <v>0.2227763455446146</v>
       </c>
       <c r="C59">
-        <v>-0.4159067925867203</v>
+        <v>0.3147477772686213</v>
       </c>
       <c r="D59">
-        <v>0.04955407380417961</v>
+        <v>0.006065917498895335</v>
       </c>
       <c r="E59">
-        <v>-0.09003121227581216</v>
+        <v>0.01702921978308188</v>
       </c>
       <c r="F59">
-        <v>-0.06674814464876502</v>
+        <v>0.03907195054782134</v>
       </c>
       <c r="G59">
-        <v>-0.0443206990889178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.04389160653819425</v>
+      </c>
+      <c r="H59">
+        <v>0.06503872596767687</v>
+      </c>
+      <c r="I59">
+        <v>0.06486377062018446</v>
+      </c>
+      <c r="J59">
+        <v>-0.03857960141826575</v>
+      </c>
+      <c r="K59">
+        <v>0.01045996456707653</v>
+      </c>
+      <c r="L59">
+        <v>-0.04182809174156478</v>
+      </c>
+      <c r="M59">
+        <v>-0.04459977515219423</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2347186232723814</v>
+        <v>0.2429922528250818</v>
       </c>
       <c r="C60">
-        <v>0.05753035967171748</v>
+        <v>-0.1044030742757726</v>
       </c>
       <c r="D60">
-        <v>-0.1123553880210409</v>
+        <v>0.1158592356292163</v>
       </c>
       <c r="E60">
-        <v>-0.08053322611798067</v>
+        <v>-0.04279197049138794</v>
       </c>
       <c r="F60">
-        <v>0.0094977075209382</v>
+        <v>0.007937595272470279</v>
       </c>
       <c r="G60">
-        <v>0.007970856991792884</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04781625371599828</v>
+      </c>
+      <c r="H60">
+        <v>-0.08323741960720885</v>
+      </c>
+      <c r="I60">
+        <v>0.1442874067260706</v>
+      </c>
+      <c r="J60">
+        <v>0.1335936202565578</v>
+      </c>
+      <c r="K60">
+        <v>0.006005884259335181</v>
+      </c>
+      <c r="L60">
+        <v>-0.06712598378618628</v>
+      </c>
+      <c r="M60">
+        <v>0.05171949097367644</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.07491540863149496</v>
+        <v>0.0839231360287209</v>
       </c>
       <c r="C61">
-        <v>0.0489896585514229</v>
+        <v>-0.0546309678416786</v>
       </c>
       <c r="D61">
-        <v>-0.04325687290367945</v>
+        <v>0.0197035325780476</v>
       </c>
       <c r="E61">
-        <v>-0.01177878415248518</v>
+        <v>0.02430869635420051</v>
       </c>
       <c r="F61">
-        <v>-0.01938951005373046</v>
+        <v>-0.0619079396669879</v>
       </c>
       <c r="G61">
-        <v>0.0029783571023267</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.05988108467378823</v>
+      </c>
+      <c r="H61">
+        <v>0.05714362675355979</v>
+      </c>
+      <c r="I61">
+        <v>-0.05123590490471935</v>
+      </c>
+      <c r="J61">
+        <v>-0.07740304244171699</v>
+      </c>
+      <c r="K61">
+        <v>0.04557861405052256</v>
+      </c>
+      <c r="L61">
+        <v>0.04431640956347957</v>
+      </c>
+      <c r="M61">
+        <v>0.01203777595758136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1601151134801999</v>
+        <v>0.1463228509830461</v>
       </c>
       <c r="C62">
-        <v>0.02198492676956807</v>
+        <v>-0.06799059914766115</v>
       </c>
       <c r="D62">
-        <v>-0.06585679701516127</v>
+        <v>0.0316121547295628</v>
       </c>
       <c r="E62">
-        <v>0.002072998543798875</v>
+        <v>-0.07005344763897765</v>
       </c>
       <c r="F62">
-        <v>0.09507646812714918</v>
+        <v>-0.003577878833735808</v>
       </c>
       <c r="G62">
-        <v>-0.2003509840119164</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.007995490479602387</v>
+      </c>
+      <c r="H62">
+        <v>0.2145177176024893</v>
+      </c>
+      <c r="I62">
+        <v>0.08987291016861394</v>
+      </c>
+      <c r="J62">
+        <v>0.06660809431774584</v>
+      </c>
+      <c r="K62">
+        <v>-0.06345045030835486</v>
+      </c>
+      <c r="L62">
+        <v>-0.03224365611059193</v>
+      </c>
+      <c r="M62">
+        <v>-0.04710805216807173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.04717427617408249</v>
+        <v>0.04498361794414794</v>
       </c>
       <c r="C63">
-        <v>0.04522881031200641</v>
+        <v>-0.02790907519163719</v>
       </c>
       <c r="D63">
-        <v>-0.02096018985280913</v>
+        <v>-0.004772332108350992</v>
       </c>
       <c r="E63">
-        <v>-0.01169863805909045</v>
+        <v>-0.0004856454451676921</v>
       </c>
       <c r="F63">
-        <v>-0.0104137711032235</v>
+        <v>-0.04295608630150537</v>
       </c>
       <c r="G63">
-        <v>-0.03033596006998408</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.04129957935790456</v>
+      </c>
+      <c r="H63">
+        <v>0.01146631914459976</v>
+      </c>
+      <c r="I63">
+        <v>-0.06741685534860646</v>
+      </c>
+      <c r="J63">
+        <v>0.01943956113582941</v>
+      </c>
+      <c r="K63">
+        <v>-0.00380941941831152</v>
+      </c>
+      <c r="L63">
+        <v>0.02367253348997939</v>
+      </c>
+      <c r="M63">
+        <v>0.0128225530721653</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1014419015389712</v>
+        <v>0.102672312315369</v>
       </c>
       <c r="C64">
-        <v>0.02844344886280479</v>
+        <v>-0.04383004099663874</v>
       </c>
       <c r="D64">
-        <v>-0.04816207526192991</v>
+        <v>0.0324888021866292</v>
       </c>
       <c r="E64">
-        <v>-0.03388646167302802</v>
+        <v>0.03057324745817686</v>
       </c>
       <c r="F64">
-        <v>-0.04929648718117298</v>
+        <v>-0.08251069066635879</v>
       </c>
       <c r="G64">
-        <v>0.03107951694664208</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.03402970705005675</v>
+      </c>
+      <c r="H64">
+        <v>-0.02271483655889005</v>
+      </c>
+      <c r="I64">
+        <v>-0.02418193669059204</v>
+      </c>
+      <c r="J64">
+        <v>-0.03719679380657467</v>
+      </c>
+      <c r="K64">
+        <v>0.0251778785488437</v>
+      </c>
+      <c r="L64">
+        <v>0.06345163620223962</v>
+      </c>
+      <c r="M64">
+        <v>-0.02015073191615755</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1291503836192848</v>
+        <v>0.1238506976154994</v>
       </c>
       <c r="C65">
-        <v>0.06006018959018634</v>
+        <v>-0.03379382996964306</v>
       </c>
       <c r="D65">
-        <v>-0.06660895323908743</v>
+        <v>0.02560212502219649</v>
       </c>
       <c r="E65">
-        <v>-0.05590621500638286</v>
+        <v>-0.01920545962890282</v>
       </c>
       <c r="F65">
-        <v>-0.05515496094082283</v>
+        <v>-0.08482359839146926</v>
       </c>
       <c r="G65">
-        <v>0.05661397154196312</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.04490756894773493</v>
+      </c>
+      <c r="H65">
+        <v>-0.1795881029702277</v>
+      </c>
+      <c r="I65">
+        <v>-0.1321581886578216</v>
+      </c>
+      <c r="J65">
+        <v>0.6590541117478061</v>
+      </c>
+      <c r="K65">
+        <v>-0.1836778154225102</v>
+      </c>
+      <c r="L65">
+        <v>-0.06818619908346352</v>
+      </c>
+      <c r="M65">
+        <v>-0.04863731567943237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1424989275546862</v>
+        <v>0.1268813302933563</v>
       </c>
       <c r="C66">
-        <v>0.1140469346352217</v>
+        <v>-0.1186802557334212</v>
       </c>
       <c r="D66">
-        <v>-0.09569603735648337</v>
+        <v>0.01466463596315956</v>
       </c>
       <c r="E66">
-        <v>-0.03296615017430834</v>
+        <v>0.0140271060467473</v>
       </c>
       <c r="F66">
-        <v>-0.01857489409086411</v>
+        <v>-0.0982945680451173</v>
       </c>
       <c r="G66">
-        <v>-0.01337088228788976</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.07018791537587946</v>
+      </c>
+      <c r="H66">
+        <v>0.03417958614849989</v>
+      </c>
+      <c r="I66">
+        <v>-0.08103218780614561</v>
+      </c>
+      <c r="J66">
+        <v>-0.208207517208074</v>
+      </c>
+      <c r="K66">
+        <v>0.1003577085163457</v>
+      </c>
+      <c r="L66">
+        <v>0.1120284366494137</v>
+      </c>
+      <c r="M66">
+        <v>-0.02830348967315558</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.0782831490038335</v>
+        <v>0.08684668726511163</v>
       </c>
       <c r="C67">
-        <v>0.03735825254609286</v>
+        <v>-0.06334480752548312</v>
       </c>
       <c r="D67">
-        <v>0.01057398758566445</v>
+        <v>0.00815807702470338</v>
       </c>
       <c r="E67">
-        <v>-0.008047256521108236</v>
+        <v>0.03706573194378088</v>
       </c>
       <c r="F67">
-        <v>-0.032590877125299</v>
+        <v>0.01537310186805907</v>
       </c>
       <c r="G67">
-        <v>0.00897335457127792</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.004302276644570934</v>
+      </c>
+      <c r="H67">
+        <v>0.007872257232099797</v>
+      </c>
+      <c r="I67">
+        <v>0.1320136134243925</v>
+      </c>
+      <c r="J67">
+        <v>-0.04712330733951358</v>
+      </c>
+      <c r="K67">
+        <v>-0.05806154521317796</v>
+      </c>
+      <c r="L67">
+        <v>-0.03110209847383343</v>
+      </c>
+      <c r="M67">
+        <v>-0.1596761039399676</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.09779790454402179</v>
+        <v>0.1181100307076159</v>
       </c>
       <c r="C68">
-        <v>-0.2493108543769251</v>
+        <v>0.269958091010055</v>
       </c>
       <c r="D68">
-        <v>0.04788747492632219</v>
+        <v>-0.02394746162802494</v>
       </c>
       <c r="E68">
-        <v>-0.03226163534839332</v>
+        <v>0.03459660508121347</v>
       </c>
       <c r="F68">
-        <v>-0.03445580458647172</v>
+        <v>-0.00310286320755331</v>
       </c>
       <c r="G68">
-        <v>0.01112049063672333</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01194442545527933</v>
+      </c>
+      <c r="H68">
+        <v>0.02317626114404715</v>
+      </c>
+      <c r="I68">
+        <v>-0.02567741432498125</v>
+      </c>
+      <c r="J68">
+        <v>0.06120935077940499</v>
+      </c>
+      <c r="K68">
+        <v>-0.01153717087944848</v>
+      </c>
+      <c r="L68">
+        <v>0.03343795289393146</v>
+      </c>
+      <c r="M68">
+        <v>-0.05091706639252729</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.04853836259491055</v>
+        <v>0.0450677961336208</v>
       </c>
       <c r="C69">
-        <v>0.0166041954646928</v>
+        <v>-0.02145538095220645</v>
       </c>
       <c r="D69">
-        <v>0.00356969430127901</v>
+        <v>-0.01263548732602121</v>
       </c>
       <c r="E69">
-        <v>-0.01014230607008382</v>
+        <v>-0.001394227388413194</v>
       </c>
       <c r="F69">
-        <v>-0.01101516123504665</v>
+        <v>0.00244493272373596</v>
       </c>
       <c r="G69">
-        <v>-0.05973989834157829</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02634465086339341</v>
+      </c>
+      <c r="H69">
+        <v>0.04466809585143277</v>
+      </c>
+      <c r="I69">
+        <v>-0.0004149492099881068</v>
+      </c>
+      <c r="J69">
+        <v>0.009636101578185839</v>
+      </c>
+      <c r="K69">
+        <v>0.02471653343932901</v>
+      </c>
+      <c r="L69">
+        <v>-0.01446493807679339</v>
+      </c>
+      <c r="M69">
+        <v>0.03008882985215086</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.02529022912943289</v>
+        <v>0.04591352850006015</v>
       </c>
       <c r="C70">
-        <v>0.004258005899373692</v>
+        <v>-0.03072138842402409</v>
       </c>
       <c r="D70">
-        <v>-0.002650077479481789</v>
+        <v>0.02552028372054695</v>
       </c>
       <c r="E70">
-        <v>0.009906742136972688</v>
+        <v>-0.02474928541214653</v>
       </c>
       <c r="F70">
-        <v>-0.001858427690540614</v>
+        <v>0.03546164736508092</v>
       </c>
       <c r="G70">
-        <v>0.07093003882263817</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.03892768437883613</v>
+      </c>
+      <c r="H70">
+        <v>-0.02440127801814693</v>
+      </c>
+      <c r="I70">
+        <v>0.03510633417015624</v>
+      </c>
+      <c r="J70">
+        <v>-0.07238049632256739</v>
+      </c>
+      <c r="K70">
+        <v>-0.124934137381642</v>
+      </c>
+      <c r="L70">
+        <v>0.1100705584129678</v>
+      </c>
+      <c r="M70">
+        <v>-0.03479046338999009</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1052110168035231</v>
+        <v>0.1325584528557283</v>
       </c>
       <c r="C71">
-        <v>-0.2622684367763727</v>
+        <v>0.2790134690227432</v>
       </c>
       <c r="D71">
-        <v>0.05102612997334173</v>
+        <v>-0.005833250835902583</v>
       </c>
       <c r="E71">
-        <v>-0.06648405567291753</v>
+        <v>0.05030372590180068</v>
       </c>
       <c r="F71">
-        <v>-0.02254202187159067</v>
+        <v>-0.00637828609792641</v>
       </c>
       <c r="G71">
-        <v>0.0328732093623687</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.005301918891589823</v>
+      </c>
+      <c r="H71">
+        <v>0.01148395311765671</v>
+      </c>
+      <c r="I71">
+        <v>-0.02584456816957555</v>
+      </c>
+      <c r="J71">
+        <v>0.01106334337739062</v>
+      </c>
+      <c r="K71">
+        <v>-0.004669646097590518</v>
+      </c>
+      <c r="L71">
+        <v>-0.003985718112055532</v>
+      </c>
+      <c r="M71">
+        <v>-0.01959666286432508</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.172404477742077</v>
+        <v>0.1414212055240866</v>
       </c>
       <c r="C72">
-        <v>-0.003933656341719122</v>
+        <v>-0.02912341132237543</v>
       </c>
       <c r="D72">
-        <v>-0.07974424716842374</v>
+        <v>-0.1014939448759069</v>
       </c>
       <c r="E72">
-        <v>0.2277555279042879</v>
+        <v>-0.1488514047974846</v>
       </c>
       <c r="F72">
-        <v>-0.04202686790542996</v>
+        <v>-0.0869499766053802</v>
       </c>
       <c r="G72">
-        <v>-0.05460400626000304</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.08783800441730581</v>
+      </c>
+      <c r="H72">
+        <v>0.0109193180210756</v>
+      </c>
+      <c r="I72">
+        <v>0.04244558849935266</v>
+      </c>
+      <c r="J72">
+        <v>0.1271713726189388</v>
+      </c>
+      <c r="K72">
+        <v>-0.006223609413075246</v>
+      </c>
+      <c r="L72">
+        <v>-0.07150669345072244</v>
+      </c>
+      <c r="M72">
+        <v>-0.05317763851987656</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2573100751388303</v>
+        <v>0.2366012098464057</v>
       </c>
       <c r="C73">
-        <v>0.1402415712273974</v>
+        <v>-0.1503723239317183</v>
       </c>
       <c r="D73">
-        <v>-0.1864954941218087</v>
+        <v>0.2338517999946404</v>
       </c>
       <c r="E73">
-        <v>-0.1400121139418009</v>
+        <v>-0.08764058336010791</v>
       </c>
       <c r="F73">
-        <v>0.05740185089598714</v>
+        <v>0.1418818672816479</v>
       </c>
       <c r="G73">
-        <v>0.1526006035209037</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.2743958119553075</v>
+      </c>
+      <c r="H73">
+        <v>-0.2846569530798835</v>
+      </c>
+      <c r="I73">
+        <v>0.1112529534529072</v>
+      </c>
+      <c r="J73">
+        <v>0.01450640935943362</v>
+      </c>
+      <c r="K73">
+        <v>0.4913733181455819</v>
+      </c>
+      <c r="L73">
+        <v>-0.2716351948729386</v>
+      </c>
+      <c r="M73">
+        <v>-0.2155816212860685</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.08277357797750785</v>
+        <v>0.08593871813852444</v>
       </c>
       <c r="C74">
-        <v>0.008871211218811098</v>
+        <v>-0.0595536389954076</v>
       </c>
       <c r="D74">
-        <v>-0.06885001348883182</v>
+        <v>0.0263295199077653</v>
       </c>
       <c r="E74">
-        <v>-0.008736548474174365</v>
+        <v>-0.02980158785803466</v>
       </c>
       <c r="F74">
-        <v>-0.002521054670023846</v>
+        <v>-0.02648144815041412</v>
       </c>
       <c r="G74">
-        <v>-0.06416135690865712</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.03493722477891126</v>
+      </c>
+      <c r="H74">
+        <v>0.1425669897719384</v>
+      </c>
+      <c r="I74">
+        <v>0.02473540818490268</v>
+      </c>
+      <c r="J74">
+        <v>0.02087096900796798</v>
+      </c>
+      <c r="K74">
+        <v>0.05108843335891188</v>
+      </c>
+      <c r="L74">
+        <v>-0.03506248837810565</v>
+      </c>
+      <c r="M74">
+        <v>-0.04444551245933444</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.1078681609728954</v>
+        <v>0.09224848478179412</v>
       </c>
       <c r="C75">
-        <v>0.01573791891681751</v>
+        <v>-0.04796611134226605</v>
       </c>
       <c r="D75">
-        <v>0.01359088508409027</v>
+        <v>-0.006504087568199344</v>
       </c>
       <c r="E75">
-        <v>-0.0190781156688795</v>
+        <v>-0.01645274794450525</v>
       </c>
       <c r="F75">
-        <v>0.0471405922628951</v>
+        <v>0.06349464283342102</v>
       </c>
       <c r="G75">
-        <v>-0.1056148200375999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.009142790724224008</v>
+      </c>
+      <c r="H75">
+        <v>0.1307691234475149</v>
+      </c>
+      <c r="I75">
+        <v>0.04196456096891107</v>
+      </c>
+      <c r="J75">
+        <v>0.03238142169866651</v>
+      </c>
+      <c r="K75">
+        <v>-0.007041986620520269</v>
+      </c>
+      <c r="L75">
+        <v>-0.02509261328375868</v>
+      </c>
+      <c r="M75">
+        <v>0.02891232615075371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1270625532930452</v>
+        <v>0.1081773570762644</v>
       </c>
       <c r="C76">
-        <v>0.01234546098985891</v>
+        <v>-0.06798860897235652</v>
       </c>
       <c r="D76">
-        <v>-0.06340258314584822</v>
+        <v>0.04471541714571592</v>
       </c>
       <c r="E76">
-        <v>-0.01728675674122786</v>
+        <v>-0.02640260714897</v>
       </c>
       <c r="F76">
-        <v>0.009053843260970227</v>
+        <v>-0.01003119555628388</v>
       </c>
       <c r="G76">
-        <v>-0.1681645028126721</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.0280754319179586</v>
+      </c>
+      <c r="H76">
+        <v>0.2264319805658916</v>
+      </c>
+      <c r="I76">
+        <v>0.07741399328761328</v>
+      </c>
+      <c r="J76">
+        <v>0.04289960940562074</v>
+      </c>
+      <c r="K76">
+        <v>-0.002433023981070219</v>
+      </c>
+      <c r="L76">
+        <v>-0.02637130982764046</v>
+      </c>
+      <c r="M76">
+        <v>-0.1119944649006451</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.1050743926195654</v>
+        <v>0.07730381129157109</v>
       </c>
       <c r="C77">
-        <v>0.05699820350128255</v>
+        <v>-0.02161352047751741</v>
       </c>
       <c r="D77">
-        <v>0.1004910599907308</v>
+        <v>-0.05611903599182044</v>
       </c>
       <c r="E77">
-        <v>-0.003925349223005753</v>
+        <v>0.1421455024094037</v>
       </c>
       <c r="F77">
-        <v>-0.326013887024291</v>
+        <v>-0.07969363249329743</v>
       </c>
       <c r="G77">
-        <v>-0.4302597807650919</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.6501979172657983</v>
+      </c>
+      <c r="H77">
+        <v>-0.2983473327151662</v>
+      </c>
+      <c r="I77">
+        <v>0.5101031584130929</v>
+      </c>
+      <c r="J77">
+        <v>-0.03276616420414956</v>
+      </c>
+      <c r="K77">
+        <v>0.09253770652012859</v>
+      </c>
+      <c r="L77">
+        <v>-0.04583682609442314</v>
+      </c>
+      <c r="M77">
+        <v>-0.03653700184852506</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1267395942613835</v>
+        <v>0.1645191325282405</v>
       </c>
       <c r="C78">
-        <v>0.1054306332262578</v>
+        <v>-0.1096306383433321</v>
       </c>
       <c r="D78">
-        <v>-0.0353330160429902</v>
+        <v>-0.03578238580990387</v>
       </c>
       <c r="E78">
-        <v>-0.02786930642575922</v>
+        <v>0.1683122417754115</v>
       </c>
       <c r="F78">
-        <v>-0.1099119265897154</v>
+        <v>-0.1294961018115624</v>
       </c>
       <c r="G78">
-        <v>0.08114180902595955</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.02426701342988007</v>
+      </c>
+      <c r="H78">
+        <v>-0.07073798287306908</v>
+      </c>
+      <c r="I78">
+        <v>-0.1257956884757219</v>
+      </c>
+      <c r="J78">
+        <v>-0.1479209915225578</v>
+      </c>
+      <c r="K78">
+        <v>-0.2666899891654809</v>
+      </c>
+      <c r="L78">
+        <v>-0.3755959043608147</v>
+      </c>
+      <c r="M78">
+        <v>0.3221788474422883</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1323114337372683</v>
+        <v>0.132657893836532</v>
       </c>
       <c r="C79">
-        <v>0.02683665729679833</v>
+        <v>-0.06369347033430291</v>
       </c>
       <c r="D79">
-        <v>-0.07854815174597299</v>
+        <v>0.03121050170260596</v>
       </c>
       <c r="E79">
-        <v>-0.009042363316149769</v>
+        <v>-0.02409287182748527</v>
       </c>
       <c r="F79">
-        <v>0.04719533759158207</v>
+        <v>-0.0359416045576774</v>
       </c>
       <c r="G79">
-        <v>-0.1576218280199289</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.006843565533204234</v>
+      </c>
+      <c r="H79">
+        <v>0.1835276360882439</v>
+      </c>
+      <c r="I79">
+        <v>0.0876186014597123</v>
+      </c>
+      <c r="J79">
+        <v>0.0566426582093919</v>
+      </c>
+      <c r="K79">
+        <v>-0.02923230874694328</v>
+      </c>
+      <c r="L79">
+        <v>-0.02279021515954058</v>
+      </c>
+      <c r="M79">
+        <v>-0.0259929641546526</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.02615560582804491</v>
+        <v>0.04032605707194849</v>
       </c>
       <c r="C80">
-        <v>0.02169024802631884</v>
+        <v>-0.01613725351353829</v>
       </c>
       <c r="D80">
-        <v>-0.01022605511325113</v>
+        <v>0.05433844316756178</v>
       </c>
       <c r="E80">
-        <v>-0.004477726908840724</v>
+        <v>-0.03823116830445122</v>
       </c>
       <c r="F80">
-        <v>-0.0150222718283716</v>
+        <v>-0.01053025420033145</v>
       </c>
       <c r="G80">
-        <v>-0.000387436389279541</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.02165733683552237</v>
+      </c>
+      <c r="H80">
+        <v>-0.02321790763725788</v>
+      </c>
+      <c r="I80">
+        <v>-0.1114785791882203</v>
+      </c>
+      <c r="J80">
+        <v>-0.03165810566634208</v>
+      </c>
+      <c r="K80">
+        <v>0.005956368072225945</v>
+      </c>
+      <c r="L80">
+        <v>-0.02512254971698456</v>
+      </c>
+      <c r="M80">
+        <v>0.009977971681088823</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.111254912616308</v>
+        <v>0.1195926980432261</v>
       </c>
       <c r="C81">
-        <v>0.02263960171410998</v>
+        <v>-0.04529886840448193</v>
       </c>
       <c r="D81">
-        <v>-0.06860016340163409</v>
+        <v>0.02950308321544104</v>
       </c>
       <c r="E81">
-        <v>-0.0249500387623803</v>
+        <v>-0.01763470012037051</v>
       </c>
       <c r="F81">
-        <v>0.02434505114165818</v>
+        <v>-0.03805430448021074</v>
       </c>
       <c r="G81">
-        <v>-0.09488955994522902</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.001108337796204901</v>
+      </c>
+      <c r="H81">
+        <v>0.167151240941504</v>
+      </c>
+      <c r="I81">
+        <v>0.03993567509601757</v>
+      </c>
+      <c r="J81">
+        <v>-0.002671508990958848</v>
+      </c>
+      <c r="K81">
+        <v>0.03962535930882483</v>
+      </c>
+      <c r="L81">
+        <v>0.0344113624157339</v>
+      </c>
+      <c r="M81">
+        <v>0.0925702384239513</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1127205967519832</v>
+        <v>0.116649308533184</v>
       </c>
       <c r="C82">
-        <v>0.03163020551446414</v>
+        <v>-0.05134361170163061</v>
       </c>
       <c r="D82">
-        <v>-0.04532233175175183</v>
+        <v>0.03081995503332749</v>
       </c>
       <c r="E82">
-        <v>-0.04426051979954842</v>
+        <v>-0.03626645542134678</v>
       </c>
       <c r="F82">
-        <v>0.08278169441528285</v>
+        <v>0.01147639605148904</v>
       </c>
       <c r="G82">
-        <v>-0.2364856635827508</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.01808420843933773</v>
+      </c>
+      <c r="H82">
+        <v>0.2652907139396501</v>
+      </c>
+      <c r="I82">
+        <v>0.07689790000364735</v>
+      </c>
+      <c r="J82">
+        <v>-0.03900369184700386</v>
+      </c>
+      <c r="K82">
+        <v>-0.006047477214766318</v>
+      </c>
+      <c r="L82">
+        <v>0.01598388645507218</v>
+      </c>
+      <c r="M82">
+        <v>-0.03839624757517795</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.06433060282441465</v>
+        <v>0.07975377546970065</v>
       </c>
       <c r="C83">
-        <v>0.04465523806856551</v>
+        <v>-0.05791343131258529</v>
       </c>
       <c r="D83">
-        <v>0.08714296477622201</v>
+        <v>-0.001182455106687383</v>
       </c>
       <c r="E83">
-        <v>-0.02367578323723007</v>
+        <v>0.0160337127022135</v>
       </c>
       <c r="F83">
-        <v>0.07927505249284482</v>
+        <v>0.1112311907525316</v>
       </c>
       <c r="G83">
-        <v>0.0891518072501274</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03482305997750137</v>
+      </c>
+      <c r="H83">
+        <v>-0.0259089220888863</v>
+      </c>
+      <c r="I83">
+        <v>-0.06287598355837612</v>
+      </c>
+      <c r="J83">
+        <v>-0.04385904293073017</v>
+      </c>
+      <c r="K83">
+        <v>-0.06112815637033869</v>
+      </c>
+      <c r="L83">
+        <v>0.02604203736677079</v>
+      </c>
+      <c r="M83">
+        <v>-0.04632031877454924</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.05797835113200386</v>
+        <v>0.04237391720141294</v>
       </c>
       <c r="C84">
-        <v>0.03002339487886614</v>
+        <v>0.02059139344203604</v>
       </c>
       <c r="D84">
-        <v>-0.02626431869674193</v>
+        <v>-0.03569890037392398</v>
       </c>
       <c r="E84">
-        <v>0.01466271788928767</v>
+        <v>0.005830816567975233</v>
       </c>
       <c r="F84">
-        <v>0.004872970896065884</v>
+        <v>-0.02154011168587448</v>
       </c>
       <c r="G84">
-        <v>0.08224076892109683</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.08614328938425174</v>
+      </c>
+      <c r="H84">
+        <v>-0.1527240241699232</v>
+      </c>
+      <c r="I84">
+        <v>-0.1952143474449808</v>
+      </c>
+      <c r="J84">
+        <v>-0.2256291853474352</v>
+      </c>
+      <c r="K84">
+        <v>-0.2509726324943569</v>
+      </c>
+      <c r="L84">
+        <v>-0.3088446730285039</v>
+      </c>
+      <c r="M84">
+        <v>-0.5496885073413932</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.0836998907353506</v>
+        <v>0.108217373489383</v>
       </c>
       <c r="C85">
-        <v>0.04155646598462131</v>
+        <v>-0.0511075923724423</v>
       </c>
       <c r="D85">
-        <v>-0.01790634938570597</v>
+        <v>0.04629277549625784</v>
       </c>
       <c r="E85">
-        <v>-0.05179355876206756</v>
+        <v>0.01082067427491073</v>
       </c>
       <c r="F85">
-        <v>0.01531641960547483</v>
+        <v>-0.0009710693252234116</v>
       </c>
       <c r="G85">
-        <v>-0.133708270097067</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.007571222952692002</v>
+      </c>
+      <c r="H85">
+        <v>0.1849531404040773</v>
+      </c>
+      <c r="I85">
+        <v>0.05259852923780745</v>
+      </c>
+      <c r="J85">
+        <v>0.04693532579907452</v>
+      </c>
+      <c r="K85">
+        <v>-0.0233730255431421</v>
+      </c>
+      <c r="L85">
+        <v>-0.03703064539626401</v>
+      </c>
+      <c r="M85">
+        <v>0.01907648603731645</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.0566282429281563</v>
+        <v>0.06893733284985283</v>
       </c>
       <c r="C86">
-        <v>0.08122495572526911</v>
+        <v>-0.02279238142616291</v>
       </c>
       <c r="D86">
-        <v>0.01019366758269034</v>
+        <v>-0.01982473816805394</v>
       </c>
       <c r="E86">
-        <v>-0.01203771359513315</v>
+        <v>0.05955446143095224</v>
       </c>
       <c r="F86">
-        <v>-0.03313766319846186</v>
+        <v>-0.0124467575133889</v>
       </c>
       <c r="G86">
-        <v>0.008915712605450293</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.02280791594011956</v>
+      </c>
+      <c r="H86">
+        <v>-0.08475821766416576</v>
+      </c>
+      <c r="I86">
+        <v>-0.1037439317206396</v>
+      </c>
+      <c r="J86">
+        <v>-0.201155774906232</v>
+      </c>
+      <c r="K86">
+        <v>-0.2894243552711395</v>
+      </c>
+      <c r="L86">
+        <v>-0.2956400009101454</v>
+      </c>
+      <c r="M86">
+        <v>-0.03564126087951516</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.09162705095831741</v>
+        <v>0.1134788576336019</v>
       </c>
       <c r="C87">
-        <v>0.06759467942959728</v>
+        <v>-0.06799839707294585</v>
       </c>
       <c r="D87">
-        <v>-0.0353322962588289</v>
+        <v>-0.009736389219331676</v>
       </c>
       <c r="E87">
-        <v>-0.01578034752282986</v>
+        <v>0.06008570768779987</v>
       </c>
       <c r="F87">
-        <v>-0.1903073930713561</v>
+        <v>-0.1411215902981812</v>
       </c>
       <c r="G87">
-        <v>-0.08030755882558985</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.1542748343931933</v>
+      </c>
+      <c r="H87">
+        <v>-0.1494384241991632</v>
+      </c>
+      <c r="I87">
+        <v>0.06903230412928825</v>
+      </c>
+      <c r="J87">
+        <v>-0.07007634699117614</v>
+      </c>
+      <c r="K87">
+        <v>0.00250971398717045</v>
+      </c>
+      <c r="L87">
+        <v>0.0551278287033001</v>
+      </c>
+      <c r="M87">
+        <v>0.002751686058669941</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.04141104207610313</v>
+        <v>0.0569071691338399</v>
       </c>
       <c r="C88">
-        <v>0.0297045735594454</v>
+        <v>-0.04933471797912839</v>
       </c>
       <c r="D88">
-        <v>-0.01891721642515045</v>
+        <v>0.03513458750851958</v>
       </c>
       <c r="E88">
-        <v>-0.01126460618967778</v>
+        <v>-0.009401742857412286</v>
       </c>
       <c r="F88">
-        <v>-0.004452100565276175</v>
+        <v>-0.02516202851272349</v>
       </c>
       <c r="G88">
-        <v>0.0167067086957001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02251492970465198</v>
+      </c>
+      <c r="H88">
+        <v>0.01943204654078723</v>
+      </c>
+      <c r="I88">
+        <v>-0.05251094039597727</v>
+      </c>
+      <c r="J88">
+        <v>-0.03319025787009609</v>
+      </c>
+      <c r="K88">
+        <v>0.02236458876386701</v>
+      </c>
+      <c r="L88">
+        <v>0.01515537534354151</v>
+      </c>
+      <c r="M88">
+        <v>0.02075148414308193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1550588458444435</v>
+        <v>0.2129301054269299</v>
       </c>
       <c r="C89">
-        <v>-0.3006514398980992</v>
+        <v>0.3571028300870862</v>
       </c>
       <c r="D89">
-        <v>0.06410198799338564</v>
+        <v>0.03462334597864997</v>
       </c>
       <c r="E89">
-        <v>-0.1141549367821243</v>
+        <v>0.0899780309440827</v>
       </c>
       <c r="F89">
-        <v>-0.06829768332806814</v>
+        <v>0.01222763164017198</v>
       </c>
       <c r="G89">
-        <v>0.03915543648793728</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.007115247130681037</v>
+      </c>
+      <c r="H89">
+        <v>0.01188728027031226</v>
+      </c>
+      <c r="I89">
+        <v>-0.04585245349527006</v>
+      </c>
+      <c r="J89">
+        <v>-0.04135007438838043</v>
+      </c>
+      <c r="K89">
+        <v>0.08787197471812125</v>
+      </c>
+      <c r="L89">
+        <v>0.04064806329100289</v>
+      </c>
+      <c r="M89">
+        <v>0.1287631293763663</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1257021245052138</v>
+        <v>0.1464823314518728</v>
       </c>
       <c r="C90">
-        <v>-0.2644486693400548</v>
+        <v>0.266725201394279</v>
       </c>
       <c r="D90">
-        <v>0.05894100230292257</v>
+        <v>-0.002858597478013473</v>
       </c>
       <c r="E90">
-        <v>-0.04932370267937056</v>
+        <v>0.03896882428711085</v>
       </c>
       <c r="F90">
-        <v>-0.07533149131994282</v>
+        <v>-0.006058082512602654</v>
       </c>
       <c r="G90">
-        <v>0.05266705071986248</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02214642749265342</v>
+      </c>
+      <c r="H90">
+        <v>-0.03061212544187352</v>
+      </c>
+      <c r="I90">
+        <v>-0.02977166469315093</v>
+      </c>
+      <c r="J90">
+        <v>-0.008057234840799059</v>
+      </c>
+      <c r="K90">
+        <v>0.04156280364867624</v>
+      </c>
+      <c r="L90">
+        <v>0.005899304150141769</v>
+      </c>
+      <c r="M90">
+        <v>-0.08114200927160252</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08464272710792832</v>
+        <v>0.07571741047421744</v>
       </c>
       <c r="C91">
-        <v>0.01897696840245175</v>
+        <v>-0.04883644181834206</v>
       </c>
       <c r="D91">
-        <v>-0.0142991574024966</v>
+        <v>0.004546056720423896</v>
       </c>
       <c r="E91">
-        <v>-0.00829710816043093</v>
+        <v>-0.007111500834279978</v>
       </c>
       <c r="F91">
-        <v>0.01326027771215491</v>
+        <v>0.02983191122549467</v>
       </c>
       <c r="G91">
-        <v>-0.06907272763750491</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.01176936515647091</v>
+      </c>
+      <c r="H91">
+        <v>0.09763841199910545</v>
+      </c>
+      <c r="I91">
+        <v>0.03673730972528224</v>
+      </c>
+      <c r="J91">
+        <v>0.0292118299277976</v>
+      </c>
+      <c r="K91">
+        <v>0.0255959471788942</v>
+      </c>
+      <c r="L91">
+        <v>-0.02814655895917198</v>
+      </c>
+      <c r="M91">
+        <v>0.009016059020579241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.130790803320874</v>
+        <v>0.1575524697522609</v>
       </c>
       <c r="C92">
-        <v>-0.314576921374031</v>
+        <v>0.3095121704707093</v>
       </c>
       <c r="D92">
-        <v>0.02494018506978432</v>
+        <v>0.004992733521207905</v>
       </c>
       <c r="E92">
-        <v>-0.08432833287844023</v>
+        <v>0.05045872091255905</v>
       </c>
       <c r="F92">
-        <v>-0.01949187632537975</v>
+        <v>-0.01425141203839868</v>
       </c>
       <c r="G92">
-        <v>0.07023631237579729</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.02705677631151151</v>
+      </c>
+      <c r="H92">
+        <v>0.03938902906340651</v>
+      </c>
+      <c r="I92">
+        <v>-0.02986114663243793</v>
+      </c>
+      <c r="J92">
+        <v>-0.02416461141235065</v>
+      </c>
+      <c r="K92">
+        <v>0.03459964642824987</v>
+      </c>
+      <c r="L92">
+        <v>0.01659053764365978</v>
+      </c>
+      <c r="M92">
+        <v>0.03778200775081851</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1214162004540114</v>
+        <v>0.1562550889100462</v>
       </c>
       <c r="C93">
-        <v>-0.2519731101324778</v>
+        <v>0.2924016805795692</v>
       </c>
       <c r="D93">
-        <v>0.0208902160877144</v>
+        <v>0.006856087064547009</v>
       </c>
       <c r="E93">
-        <v>-0.04713561825249633</v>
+        <v>0.01666437483758095</v>
       </c>
       <c r="F93">
-        <v>-0.03267832337162324</v>
+        <v>-0.006641245443146944</v>
       </c>
       <c r="G93">
-        <v>0.04927630973955066</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.01200380347308569</v>
+      </c>
+      <c r="H93">
+        <v>-0.01700741205083242</v>
+      </c>
+      <c r="I93">
+        <v>-0.0105111796573661</v>
+      </c>
+      <c r="J93">
+        <v>-0.007204703739793197</v>
+      </c>
+      <c r="K93">
+        <v>-0.02525201425305763</v>
+      </c>
+      <c r="L93">
+        <v>0.02276971759821292</v>
+      </c>
+      <c r="M93">
+        <v>-0.04743456562850013</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.08975649252406859</v>
+        <v>0.1035771524675334</v>
       </c>
       <c r="C94">
-        <v>0.06027328257299148</v>
+        <v>-0.07563462601150342</v>
       </c>
       <c r="D94">
-        <v>-0.00706090045943828</v>
+        <v>0.01561795882059643</v>
       </c>
       <c r="E94">
-        <v>-0.02584941956513468</v>
+        <v>0.01406379528010581</v>
       </c>
       <c r="F94">
-        <v>0.01445869839640185</v>
+        <v>0.04159442767385742</v>
       </c>
       <c r="G94">
-        <v>-0.09683887950182767</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.04034332055427499</v>
+      </c>
+      <c r="H94">
+        <v>0.127950190260498</v>
+      </c>
+      <c r="I94">
+        <v>0.01554219405586643</v>
+      </c>
+      <c r="J94">
+        <v>0.04182971537102342</v>
+      </c>
+      <c r="K94">
+        <v>0.01688427140018281</v>
+      </c>
+      <c r="L94">
+        <v>-0.02379556690449039</v>
+      </c>
+      <c r="M94">
+        <v>-0.02617978510781589</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.1002938856530538</v>
+        <v>0.129165079553446</v>
       </c>
       <c r="C95">
-        <v>0.1102738296736556</v>
+        <v>-0.07323874053374831</v>
       </c>
       <c r="D95">
-        <v>-0.07694676487380979</v>
+        <v>0.03067924434006427</v>
       </c>
       <c r="E95">
-        <v>-0.08042880081109771</v>
+        <v>0.06448986290885395</v>
       </c>
       <c r="F95">
-        <v>-0.006217524713871765</v>
+        <v>-0.07186529841886917</v>
       </c>
       <c r="G95">
-        <v>0.01809778083214896</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.006703721483701067</v>
+      </c>
+      <c r="H95">
+        <v>-0.1640562169953325</v>
+      </c>
+      <c r="I95">
+        <v>-0.1031032340715996</v>
+      </c>
+      <c r="J95">
+        <v>-0.03327549734938168</v>
+      </c>
+      <c r="K95">
+        <v>0.02255149692374416</v>
+      </c>
+      <c r="L95">
+        <v>-0.04422986546772775</v>
+      </c>
+      <c r="M95">
+        <v>0.1398774368569147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4636,151 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.3027005848758506</v>
+        <v>0.1833871267421053</v>
       </c>
       <c r="C97">
-        <v>-0.07876358249627265</v>
+        <v>0.005788641974496067</v>
       </c>
       <c r="D97">
-        <v>-0.03236796284716219</v>
+        <v>-0.6633636828752658</v>
       </c>
       <c r="E97">
-        <v>0.8784883000102363</v>
+        <v>-0.6547638064780255</v>
       </c>
       <c r="F97">
-        <v>0.04381502228281524</v>
+        <v>-0.1048642940375637</v>
       </c>
       <c r="G97">
-        <v>0.09241040084188948</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.02072494688027119</v>
+      </c>
+      <c r="H97">
+        <v>-0.07463002957873842</v>
+      </c>
+      <c r="I97">
+        <v>-0.04785943739207271</v>
+      </c>
+      <c r="J97">
+        <v>-0.06298919529436633</v>
+      </c>
+      <c r="K97">
+        <v>0.07393290253078375</v>
+      </c>
+      <c r="L97">
+        <v>-0.01547915211137879</v>
+      </c>
+      <c r="M97">
+        <v>0.04344638133242075</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2576668298804187</v>
+        <v>0.2622061902064659</v>
       </c>
       <c r="C98">
-        <v>0.09436034152097778</v>
+        <v>-0.1228374771292342</v>
       </c>
       <c r="D98">
-        <v>-0.006501701549708603</v>
+        <v>0.1445641279823308</v>
       </c>
       <c r="E98">
-        <v>-0.1216646508460369</v>
+        <v>-0.1590389679867007</v>
       </c>
       <c r="F98">
-        <v>0.5019903898522249</v>
+        <v>0.3285722720459619</v>
       </c>
       <c r="G98">
-        <v>0.409089647958308</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.199652548542385</v>
+      </c>
+      <c r="H98">
+        <v>-0.2819623176112476</v>
+      </c>
+      <c r="I98">
+        <v>0.1189721174132866</v>
+      </c>
+      <c r="J98">
+        <v>-0.1277674649503854</v>
+      </c>
+      <c r="K98">
+        <v>-0.3495782464504978</v>
+      </c>
+      <c r="L98">
+        <v>0.5330281080122182</v>
+      </c>
+      <c r="M98">
+        <v>0.1073567656546733</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.2183204273998311</v>
+        <v>0.1279384347602353</v>
       </c>
       <c r="C99">
-        <v>0.1771139112004994</v>
+        <v>-0.09248366467237921</v>
       </c>
       <c r="D99">
-        <v>0.8025140369116575</v>
+        <v>-0.2311441751084164</v>
       </c>
       <c r="E99">
-        <v>-0.003994588806236269</v>
+        <v>0.1478514864151133</v>
       </c>
       <c r="F99">
-        <v>0.2970255216183822</v>
+        <v>0.7535555070561989</v>
       </c>
       <c r="G99">
-        <v>-0.2186269848664197</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.2798631605001573</v>
+      </c>
+      <c r="H99">
+        <v>0.1211791637900115</v>
+      </c>
+      <c r="I99">
+        <v>-0.06516898018677081</v>
+      </c>
+      <c r="J99">
+        <v>-0.007640107182902763</v>
+      </c>
+      <c r="K99">
+        <v>-0.07757544512252806</v>
+      </c>
+      <c r="L99">
+        <v>-0.1561101517214697</v>
+      </c>
+      <c r="M99">
+        <v>0.0431368925041034</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,33 +4800,69 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.04597816185157468</v>
+        <v>0.04552641476563472</v>
       </c>
       <c r="C101">
-        <v>0.004824201143751325</v>
+        <v>-0.0200551719486976</v>
       </c>
       <c r="D101">
-        <v>-0.01877968990556851</v>
+        <v>0.01005865469844089</v>
       </c>
       <c r="E101">
-        <v>-0.01170066593804883</v>
+        <v>0.02173661856664717</v>
       </c>
       <c r="F101">
-        <v>-0.03643379036928802</v>
+        <v>-0.04486924385067075</v>
       </c>
       <c r="G101">
-        <v>0.01436963193107666</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.02136441350375519</v>
+      </c>
+      <c r="H101">
+        <v>0.04542824295308671</v>
+      </c>
+      <c r="I101">
+        <v>-0.05158509287530451</v>
+      </c>
+      <c r="J101">
+        <v>0.0004748124127904367</v>
+      </c>
+      <c r="K101">
+        <v>-0.022390420964538</v>
+      </c>
+      <c r="L101">
+        <v>0.01742212761798439</v>
+      </c>
+      <c r="M101">
+        <v>-0.001142015939390965</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4882,28 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4923,28 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4962,24 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
